--- a/data/Capricoin/Capricoin20190701.xlsx
+++ b/data/Capricoin/Capricoin20190701.xlsx
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="169">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="171">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
